--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N2">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q2">
-        <v>36.21153449778947</v>
+        <v>221.8083365671443</v>
       </c>
       <c r="R2">
-        <v>36.21153449778947</v>
+        <v>1996.275029104299</v>
       </c>
       <c r="S2">
-        <v>0.02973554708272815</v>
+        <v>0.08300736769577864</v>
       </c>
       <c r="T2">
-        <v>0.02973554708272815</v>
+        <v>0.08300736769577864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N3">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q3">
-        <v>79.13974876327649</v>
+        <v>354.0555721756436</v>
       </c>
       <c r="R3">
-        <v>79.13974876327649</v>
+        <v>3186.500149580793</v>
       </c>
       <c r="S3">
-        <v>0.06498657839560321</v>
+        <v>0.1324982708908528</v>
       </c>
       <c r="T3">
-        <v>0.06498657839560321</v>
+        <v>0.1324982708908528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N4">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q4">
-        <v>205.7770739172477</v>
+        <v>1006.413935341805</v>
       </c>
       <c r="R4">
-        <v>205.7770739172477</v>
+        <v>9057.72541807625</v>
       </c>
       <c r="S4">
-        <v>0.1689763760325009</v>
+        <v>0.3766304408481249</v>
       </c>
       <c r="T4">
-        <v>0.1689763760325009</v>
+        <v>0.376630440848125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N5">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q5">
-        <v>53.88268039219236</v>
+        <v>78.15817780466911</v>
       </c>
       <c r="R5">
-        <v>53.88268039219236</v>
+        <v>703.423600242022</v>
       </c>
       <c r="S5">
-        <v>0.04424642595147237</v>
+        <v>0.02924914682591427</v>
       </c>
       <c r="T5">
-        <v>0.04424642595147237</v>
+        <v>0.02924914682591427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N6">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q6">
-        <v>117.7597648945349</v>
+        <v>124.7578823731949</v>
       </c>
       <c r="R6">
-        <v>117.7597648945349</v>
+        <v>1122.820941358754</v>
       </c>
       <c r="S6">
-        <v>0.09669987980449155</v>
+        <v>0.04668816138911733</v>
       </c>
       <c r="T6">
-        <v>0.09669987980449155</v>
+        <v>0.04668816138911733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N7">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O7">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P7">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q7">
-        <v>306.19581466785</v>
+        <v>354.6281466284308</v>
       </c>
       <c r="R7">
-        <v>306.19581466785</v>
+        <v>3191.653319655878</v>
       </c>
       <c r="S7">
-        <v>0.2514364605053113</v>
+        <v>0.1327125455158344</v>
       </c>
       <c r="T7">
-        <v>0.2514364605053113</v>
+        <v>0.1327125455158344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N8">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O8">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P8">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q8">
-        <v>47.22751538273256</v>
+        <v>74.62362507532011</v>
       </c>
       <c r="R8">
-        <v>47.22751538273256</v>
+        <v>671.6126256778811</v>
       </c>
       <c r="S8">
-        <v>0.03878145532190136</v>
+        <v>0.02792641061777191</v>
       </c>
       <c r="T8">
-        <v>0.03878145532190136</v>
+        <v>0.02792641061777191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N9">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P9">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q9">
-        <v>103.2150046646433</v>
+        <v>119.1159479520519</v>
       </c>
       <c r="R9">
-        <v>103.2150046646433</v>
+        <v>1072.043531568467</v>
       </c>
       <c r="S9">
-        <v>0.08475627098975501</v>
+        <v>0.04457677940835251</v>
       </c>
       <c r="T9">
-        <v>0.08475627098975501</v>
+        <v>0.04457677940835251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N10">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O10">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P10">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q10">
-        <v>268.3769152183752</v>
+        <v>338.5907732047298</v>
       </c>
       <c r="R10">
-        <v>268.3769152183752</v>
+        <v>3047.316958842569</v>
       </c>
       <c r="S10">
-        <v>0.2203810059162363</v>
+        <v>0.1267108768082533</v>
       </c>
       <c r="T10">
-        <v>0.2203810059162363</v>
+        <v>0.1267108768082533</v>
       </c>
     </row>
   </sheetData>
